--- a/analyses/input/Species Traits.xlsx
+++ b/analyses/input/Species Traits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="32780" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="260">
   <si>
     <t>Acer pensylvanicum</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Hamamelis virginiana</t>
   </si>
   <si>
-    <t>Ilex/ Nemopanthus mucronatus</t>
-  </si>
-  <si>
     <t>Kalmia angustifolia</t>
   </si>
   <si>
@@ -200,13 +197,619 @@
   </si>
   <si>
     <t>International Association of Wood Anatomists IAWA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Not in DB, genus varies from ring to diffuse</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Serotina 4v, others 5</t>
+  </si>
+  <si>
+    <t>Congeners</t>
+  </si>
+  <si>
+    <t>Genus variable</t>
+  </si>
+  <si>
+    <t>Abbrev</t>
+  </si>
+  <si>
+    <t>Infraspecific</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Plant.Name.Index</t>
+  </si>
+  <si>
+    <t>TPL_version</t>
+  </si>
+  <si>
+    <t>Taxonomic.status</t>
+  </si>
+  <si>
+    <t>New.Genus</t>
+  </si>
+  <si>
+    <t>New.Hybrid.marker</t>
+  </si>
+  <si>
+    <t>New.Species</t>
+  </si>
+  <si>
+    <t>New.Infraspecific</t>
+  </si>
+  <si>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>New.ID</t>
+  </si>
+  <si>
+    <t>Typo</t>
+  </si>
+  <si>
+    <t>WFormat</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>pensylvanicum</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>kew-2616210</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Sapindaceae</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>rubrum</t>
+  </si>
+  <si>
+    <t>kew-2616329</t>
+  </si>
+  <si>
+    <t>saccharum</t>
+  </si>
+  <si>
+    <t>kew-2616387</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>spicatum</t>
+  </si>
+  <si>
+    <t>kew-2616481</t>
+  </si>
+  <si>
+    <t>Lam.</t>
+  </si>
+  <si>
+    <t>Alnus</t>
+  </si>
+  <si>
+    <t>incana</t>
+  </si>
+  <si>
+    <t>kew-6417</t>
+  </si>
+  <si>
+    <t>Betulaceae</t>
+  </si>
+  <si>
+    <t>(L.) Moench</t>
+  </si>
+  <si>
+    <t>subsp.</t>
+  </si>
+  <si>
+    <t>rugosa</t>
+  </si>
+  <si>
+    <t>kew-6448</t>
+  </si>
+  <si>
+    <t>(Du Roi) R.T.Clausen</t>
+  </si>
+  <si>
+    <t>Amelanchier</t>
+  </si>
+  <si>
+    <t>canadensis</t>
+  </si>
+  <si>
+    <t>rjp-424</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>(L.) Medik.</t>
+  </si>
+  <si>
+    <t>laevis</t>
+  </si>
+  <si>
+    <t>rjp-4797</t>
+  </si>
+  <si>
+    <t>Wiegand</t>
+  </si>
+  <si>
+    <t>Aronia</t>
+  </si>
+  <si>
+    <t>melanocarpa</t>
+  </si>
+  <si>
+    <t>rjp-912</t>
+  </si>
+  <si>
+    <t>(Michx.) Elliott</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>alleghaniensis</t>
+  </si>
+  <si>
+    <t>kew-21135</t>
+  </si>
+  <si>
+    <t>Britton</t>
+  </si>
+  <si>
+    <t>lenta</t>
+  </si>
+  <si>
+    <t>kew-21443</t>
+  </si>
+  <si>
+    <t>papyrifera</t>
+  </si>
+  <si>
+    <t>kew-21557</t>
+  </si>
+  <si>
+    <t>populifolia</t>
+  </si>
+  <si>
+    <t>kew-21620</t>
+  </si>
+  <si>
+    <t>Cornus</t>
+  </si>
+  <si>
+    <t>alternifolia</t>
+  </si>
+  <si>
+    <t>kew-47279</t>
+  </si>
+  <si>
+    <t>Cornaceae</t>
+  </si>
+  <si>
+    <t>L.f.</t>
+  </si>
+  <si>
+    <t>Corylus</t>
+  </si>
+  <si>
+    <t>cornuta</t>
+  </si>
+  <si>
+    <t>kew-47871</t>
+  </si>
+  <si>
+    <t>Diervilla</t>
+  </si>
+  <si>
+    <t>lonicera</t>
+  </si>
+  <si>
+    <t>kew-2767878</t>
+  </si>
+  <si>
+    <t>Caprifoliaceae</t>
+  </si>
+  <si>
+    <t>Mill.</t>
+  </si>
+  <si>
+    <t>Fagus</t>
+  </si>
+  <si>
+    <t>grandifolia</t>
+  </si>
+  <si>
+    <t>kew-83824</t>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+  </si>
+  <si>
+    <t>Ehrh.</t>
+  </si>
+  <si>
+    <t>Fraxinus</t>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>kew-369468</t>
+  </si>
+  <si>
+    <t>Oleaceae</t>
+  </si>
+  <si>
+    <t>nigra</t>
+  </si>
+  <si>
+    <t>kew-369888</t>
+  </si>
+  <si>
+    <t>Hamamelis</t>
+  </si>
+  <si>
+    <t>virginiana</t>
+  </si>
+  <si>
+    <t>tro-15100007</t>
+  </si>
+  <si>
+    <t>Hamamelidaceae</t>
+  </si>
+  <si>
+    <t>Ilex</t>
+  </si>
+  <si>
+    <t>verticillata</t>
+  </si>
+  <si>
+    <t>tro-2000243</t>
+  </si>
+  <si>
+    <t>Aquifoliaceae</t>
+  </si>
+  <si>
+    <t>(L.) A. Gray</t>
+  </si>
+  <si>
+    <t>Kalmia</t>
+  </si>
+  <si>
+    <t>angustifolia</t>
+  </si>
+  <si>
+    <t>kew-2333601</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Lonicera</t>
+  </si>
+  <si>
+    <t>tro-6000135</t>
+  </si>
+  <si>
+    <t>Bartram ex Marshall</t>
+  </si>
+  <si>
+    <t>Lyonia</t>
+  </si>
+  <si>
+    <t>ligustrina</t>
+  </si>
+  <si>
+    <t>tro-12300077</t>
+  </si>
+  <si>
+    <t>(L.) DC.</t>
+  </si>
+  <si>
+    <t>Myrica</t>
+  </si>
+  <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>kew-2500739</t>
+  </si>
+  <si>
+    <t>Myricaceae</t>
+  </si>
+  <si>
+    <t>Nyssa</t>
+  </si>
+  <si>
+    <t>sylvatica</t>
+  </si>
+  <si>
+    <t>kew-136221</t>
+  </si>
+  <si>
+    <t>Ostrya</t>
+  </si>
+  <si>
+    <t>kew-144637</t>
+  </si>
+  <si>
+    <t>(Mill.) K.Koch</t>
+  </si>
+  <si>
+    <t>Populus</t>
+  </si>
+  <si>
+    <t>grandidentata</t>
+  </si>
+  <si>
+    <t>kew-5000420</t>
+  </si>
+  <si>
+    <t>Salicaceae</t>
+  </si>
+  <si>
+    <t>Michx.</t>
+  </si>
+  <si>
+    <t>tremuloides</t>
+  </si>
+  <si>
+    <t>kew-5000290</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>pensylvanica</t>
+  </si>
+  <si>
+    <t>rjp-1021</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>kew-171499</t>
+  </si>
+  <si>
+    <t>rubra</t>
+  </si>
+  <si>
+    <t>kew-174902</t>
+  </si>
+  <si>
+    <t>velutina</t>
+  </si>
+  <si>
+    <t>kew-175672</t>
+  </si>
+  <si>
+    <t>Rhamnus</t>
+  </si>
+  <si>
+    <t>frangula</t>
+  </si>
+  <si>
+    <t>kew-2522983</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>Rhamnaceae</t>
+  </si>
+  <si>
+    <t>Frangula</t>
+  </si>
+  <si>
+    <t>alnus</t>
+  </si>
+  <si>
+    <t>kew-2814031</t>
+  </si>
+  <si>
+    <t>Rhododendron</t>
+  </si>
+  <si>
+    <t>prinophyllum</t>
+  </si>
+  <si>
+    <t>tro-12300652</t>
+  </si>
+  <si>
+    <t>(Small) Millais</t>
+  </si>
+  <si>
+    <t>Ribes</t>
+  </si>
+  <si>
+    <t>glandulosum</t>
+  </si>
+  <si>
+    <t>tro-29101126</t>
+  </si>
+  <si>
+    <t>Grossulariaceae</t>
+  </si>
+  <si>
+    <t>Grauer</t>
+  </si>
+  <si>
+    <t>Salix</t>
+  </si>
+  <si>
+    <t>bebbiana</t>
+  </si>
+  <si>
+    <t>kew-5001777</t>
+  </si>
+  <si>
+    <t>Sarg.</t>
+  </si>
+  <si>
+    <t>discolor</t>
+  </si>
+  <si>
+    <t>kew-5000832</t>
+  </si>
+  <si>
+    <t>Muhl.</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>kew-5002954</t>
+  </si>
+  <si>
+    <t>Sambucus</t>
+  </si>
+  <si>
+    <t>racemosa</t>
+  </si>
+  <si>
+    <t>kew-2486552</t>
+  </si>
+  <si>
+    <t>Adoxaceae</t>
+  </si>
+  <si>
+    <t>Sorbus</t>
+  </si>
+  <si>
+    <t>rjp-6184</t>
+  </si>
+  <si>
+    <t>Spiraea</t>
+  </si>
+  <si>
+    <t>rjp-1282</t>
+  </si>
+  <si>
+    <t>Du Roi</t>
+  </si>
+  <si>
+    <t>tomentosa</t>
+  </si>
+  <si>
+    <t>rjp-977</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>kew-2518218</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Ulmus</t>
+  </si>
+  <si>
+    <t>kew-2450019</t>
+  </si>
+  <si>
+    <t>Ulmaceae</t>
+  </si>
+  <si>
+    <t>Vaccinium</t>
+  </si>
+  <si>
+    <t>myrtilloides</t>
+  </si>
+  <si>
+    <t>tro-12300054</t>
+  </si>
+  <si>
+    <t>Viburnum</t>
+  </si>
+  <si>
+    <t>cassinoides</t>
+  </si>
+  <si>
+    <t>tro-6000337</t>
+  </si>
+  <si>
+    <t>lantanoides</t>
+  </si>
+  <si>
+    <t>tro-6000174</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>riparia</t>
+  </si>
+  <si>
+    <t>kew-2457043</t>
+  </si>
+  <si>
+    <t>Vitaceae</t>
+  </si>
+  <si>
+    <t>vulpina</t>
+  </si>
+  <si>
+    <t>kew-2457167</t>
+  </si>
+  <si>
+    <t>Ilex mucronata</t>
+  </si>
+  <si>
+    <t>mucronata</t>
+  </si>
+  <si>
+    <t>tro-50324092</t>
+  </si>
+  <si>
+    <t>(L.) M. Powell, Savol. &amp; S. Andrews</t>
+  </si>
+  <si>
+    <t>As Frangula alnus</t>
+  </si>
+  <si>
+    <t>Updated taxonomic variables from The Plant List, using Taxonstand R package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +831,22 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,8 +865,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,7 +980,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="107">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,135 +1416,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" t="s">
+        <v>125</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S15" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -723,42 +2328,252 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" t="s">
+        <v>148</v>
+      </c>
+      <c r="R20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" t="s">
+        <v>152</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" t="s">
+        <v>158</v>
+      </c>
+      <c r="S22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -766,18 +2581,102 @@
       <c r="C23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" t="s">
+        <v>255</v>
+      </c>
+      <c r="R23" t="s">
+        <v>257</v>
+      </c>
+      <c r="S23" t="s">
+        <v>256</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" t="s">
+        <v>160</v>
+      </c>
+      <c r="R24" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -785,147 +2684,1428 @@
       <c r="C25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" t="s">
+        <v>165</v>
+      </c>
+      <c r="S25" t="s">
+        <v>164</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" t="s">
+        <v>169</v>
+      </c>
+      <c r="S26" t="s">
+        <v>168</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27" t="s">
+        <v>171</v>
+      </c>
+      <c r="R27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" t="s">
+        <v>175</v>
+      </c>
+      <c r="R28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" t="s">
+        <v>176</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" t="s">
+        <v>151</v>
+      </c>
+      <c r="R29" t="s">
+        <v>179</v>
+      </c>
+      <c r="S29" t="s">
+        <v>178</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" t="s">
+        <v>181</v>
+      </c>
+      <c r="R30" t="s">
+        <v>184</v>
+      </c>
+      <c r="S30" t="s">
+        <v>182</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" t="s">
+        <v>183</v>
+      </c>
+      <c r="N31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" t="s">
+        <v>185</v>
+      </c>
+      <c r="R31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S31" t="s">
+        <v>186</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" t="s">
+        <v>188</v>
+      </c>
+      <c r="R32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S32" t="s">
+        <v>189</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+      <c r="R33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S33" t="s">
+        <v>192</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" t="s">
+        <v>193</v>
+      </c>
+      <c r="R34" t="s">
+        <v>86</v>
+      </c>
+      <c r="S34" t="s">
+        <v>194</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R35" t="s">
+        <v>94</v>
+      </c>
+      <c r="S35" t="s">
+        <v>196</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L36" t="s">
+        <v>200</v>
+      </c>
+      <c r="M36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" t="s">
+        <v>203</v>
+      </c>
+      <c r="R36" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" t="s">
+        <v>204</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" t="s">
+        <v>206</v>
+      </c>
+      <c r="R37" t="s">
+        <v>208</v>
+      </c>
+      <c r="S37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" t="s">
+        <v>212</v>
+      </c>
+      <c r="N38" t="s">
+        <v>209</v>
+      </c>
+      <c r="P38" t="s">
+        <v>210</v>
+      </c>
+      <c r="R38" t="s">
+        <v>213</v>
+      </c>
+      <c r="S38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" t="s">
+        <v>183</v>
+      </c>
+      <c r="N39" t="s">
+        <v>214</v>
+      </c>
+      <c r="P39" t="s">
+        <v>215</v>
+      </c>
+      <c r="R39" t="s">
+        <v>217</v>
+      </c>
+      <c r="S39" t="s">
+        <v>216</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" t="s">
+        <v>183</v>
+      </c>
+      <c r="N40" t="s">
+        <v>214</v>
+      </c>
+      <c r="P40" t="s">
+        <v>218</v>
+      </c>
+      <c r="R40" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" t="s">
+        <v>219</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L41" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" t="s">
+        <v>183</v>
+      </c>
+      <c r="N41" t="s">
+        <v>214</v>
+      </c>
+      <c r="P41" t="s">
+        <v>221</v>
+      </c>
+      <c r="R41" t="s">
+        <v>220</v>
+      </c>
+      <c r="S41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" t="s">
+        <v>223</v>
+      </c>
+      <c r="P42" t="s">
+        <v>224</v>
+      </c>
+      <c r="R42" t="s">
+        <v>86</v>
+      </c>
+      <c r="S42" t="s">
+        <v>225</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" t="s">
+        <v>227</v>
+      </c>
+      <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="R43" t="s">
+        <v>91</v>
+      </c>
+      <c r="S43" t="s">
+        <v>228</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" t="s">
+        <v>107</v>
+      </c>
+      <c r="N44" t="s">
+        <v>229</v>
+      </c>
+      <c r="P44" t="s">
+        <v>191</v>
+      </c>
+      <c r="R44" t="s">
+        <v>231</v>
+      </c>
+      <c r="S44" t="s">
+        <v>230</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N45" t="s">
+        <v>229</v>
+      </c>
+      <c r="P45" t="s">
+        <v>232</v>
+      </c>
+      <c r="R45" t="s">
+        <v>86</v>
+      </c>
+      <c r="S45" t="s">
+        <v>233</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" t="s">
+        <v>236</v>
+      </c>
+      <c r="N46" t="s">
+        <v>234</v>
+      </c>
+      <c r="P46" t="s">
+        <v>145</v>
+      </c>
+      <c r="R46" t="s">
+        <v>86</v>
+      </c>
+      <c r="S46" t="s">
+        <v>235</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" t="s">
+        <v>239</v>
+      </c>
+      <c r="N47" t="s">
+        <v>237</v>
+      </c>
+      <c r="P47" t="s">
+        <v>145</v>
+      </c>
+      <c r="R47" t="s">
+        <v>86</v>
+      </c>
+      <c r="S47" t="s">
+        <v>238</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s">
+        <v>242</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" t="s">
+        <v>240</v>
+      </c>
+      <c r="P48" t="s">
+        <v>241</v>
+      </c>
+      <c r="R48" t="s">
+        <v>184</v>
+      </c>
+      <c r="S48" t="s">
+        <v>242</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L49" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" t="s">
+        <v>226</v>
+      </c>
+      <c r="N49" t="s">
+        <v>243</v>
+      </c>
+      <c r="P49" t="s">
+        <v>244</v>
+      </c>
+      <c r="R49" t="s">
+        <v>86</v>
+      </c>
+      <c r="S49" t="s">
+        <v>245</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" t="s">
+        <v>226</v>
+      </c>
+      <c r="N50" t="s">
+        <v>243</v>
+      </c>
+      <c r="P50" t="s">
+        <v>246</v>
+      </c>
+      <c r="R50" t="s">
+        <v>184</v>
+      </c>
+      <c r="S50" t="s">
+        <v>247</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L51" t="s">
+        <v>200</v>
+      </c>
+      <c r="M51" t="s">
+        <v>251</v>
+      </c>
+      <c r="N51" t="s">
+        <v>248</v>
+      </c>
+      <c r="P51" t="s">
+        <v>252</v>
+      </c>
+      <c r="R51" t="s">
+        <v>86</v>
+      </c>
+      <c r="S51" t="s">
+        <v>253</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -935,6 +4115,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -945,36 +4126,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -982,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -990,7 +4171,97 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/input/Species Traits.xlsx
+++ b/analyses/input/Species Traits.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="0" windowWidth="32780" windowHeight="28260" tabRatio="500"/>
@@ -1416,13 +1416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:U1"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1431,26 +1431,27 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1463,712 +1464,712 @@
       <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
         <v>83</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>86</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
         <v>88</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>87</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>88</v>
       </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>89</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>91</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>92</v>
       </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
         <v>93</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>92</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>94</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>93</v>
       </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>95</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>97</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
         <v>98</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>95</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>96</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>99</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>97</v>
       </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" t="s">
         <v>98</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>95</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>96</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>102</v>
       </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8" t="s">
-        <v>84</v>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>105</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>108</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>106</v>
       </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" t="s">
-        <v>84</v>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>109</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>111</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>110</v>
       </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L10" t="s">
-        <v>84</v>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>112</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>113</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>115</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>114</v>
       </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
         <v>98</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>116</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>117</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>119</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>118</v>
       </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>116</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>120</v>
       </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
         <v>121</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L12" t="s">
-        <v>84</v>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>116</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>120</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>86</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>121</v>
       </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
         <v>123</v>
       </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
         <v>98</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>116</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>122</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>91</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>123</v>
       </c>
-      <c r="T13" t="b">
-        <v>0</v>
-      </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>124</v>
       </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
         <v>98</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>116</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>124</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>91</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>125</v>
       </c>
-      <c r="T14" t="b">
-        <v>0</v>
-      </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2178,147 +2179,147 @@
       <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>126</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
         <v>128</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L15" t="s">
-        <v>84</v>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
         <v>129</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>126</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>127</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>130</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>128</v>
       </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>132</v>
       </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
         <v>133</v>
       </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
         <v>98</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>131</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>132</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>91</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>133</v>
       </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>134</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>135</v>
       </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
         <v>136</v>
       </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L17" t="s">
-        <v>84</v>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
         <v>137</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>134</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>135</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>138</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>136</v>
       </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2328,250 +2329,250 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>139</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>140</v>
       </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
         <v>141</v>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L18" t="s">
-        <v>84</v>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
         <v>142</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>139</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>140</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>143</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>141</v>
       </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>144</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>145</v>
       </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
         <v>146</v>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L19" t="s">
-        <v>84</v>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
         <v>147</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>144</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>145</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>86</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>146</v>
       </c>
-      <c r="T19" t="b">
-        <v>0</v>
-      </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>144</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>148</v>
       </c>
-      <c r="G20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
         <v>149</v>
       </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L20" t="s">
-        <v>84</v>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s">
         <v>147</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>144</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>148</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>91</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>149</v>
       </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>150</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>151</v>
       </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" t="s">
-        <v>84</v>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s">
         <v>153</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>150</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>151</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>86</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>152</v>
       </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>154</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>155</v>
       </c>
-      <c r="G22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
         <v>156</v>
       </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L22" t="s">
-        <v>84</v>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
         <v>157</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>154</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>155</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>158</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>156</v>
       </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>254</v>
       </c>
@@ -2581,100 +2582,100 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>154</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>255</v>
       </c>
-      <c r="G23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s">
         <v>256</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23" t="s">
-        <v>84</v>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" t="s">
         <v>157</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>154</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>255</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>257</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>256</v>
       </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>160</v>
       </c>
-      <c r="G24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L24" t="s">
-        <v>84</v>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" t="s">
         <v>162</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>159</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>160</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>86</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>161</v>
       </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2684,100 +2685,100 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>163</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>105</v>
       </c>
-      <c r="G25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
         <v>164</v>
       </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
         <v>137</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>163</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>105</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>165</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>164</v>
       </c>
-      <c r="T25" t="b">
-        <v>0</v>
-      </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>166</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>167</v>
       </c>
-      <c r="G26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
         <v>168</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L26" t="s">
-        <v>84</v>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" t="s">
         <v>162</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>166</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>167</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>169</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>168</v>
       </c>
-      <c r="T26" t="b">
-        <v>0</v>
-      </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2787,50 +2788,50 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>170</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>171</v>
       </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" t="s">
         <v>172</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L27" t="s">
-        <v>84</v>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M27" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" t="s">
         <v>173</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>170</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>171</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>86</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>172</v>
       </c>
-      <c r="T27" t="b">
-        <v>0</v>
-      </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2840,100 +2841,100 @@
       <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>174</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>175</v>
       </c>
-      <c r="G28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
         <v>176</v>
       </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L28" t="s">
-        <v>84</v>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M28" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>174</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>175</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>91</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>176</v>
       </c>
-      <c r="T28" t="b">
-        <v>0</v>
-      </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>151</v>
       </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" t="s">
         <v>178</v>
       </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L29" t="s">
-        <v>84</v>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" t="s">
         <v>98</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>177</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>151</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>179</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>178</v>
       </c>
-      <c r="T29" t="b">
-        <v>0</v>
-      </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -2946,50 +2947,50 @@
       <c r="D30" t="s">
         <v>62</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>180</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>181</v>
       </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" t="s">
         <v>182</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L30" t="s">
-        <v>84</v>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" t="s">
         <v>183</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>180</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>181</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>184</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>182</v>
       </c>
-      <c r="T30" t="b">
-        <v>0</v>
-      </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -3002,50 +3003,50 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>180</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>185</v>
       </c>
-      <c r="G31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s">
         <v>186</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L31" t="s">
-        <v>84</v>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" t="s">
         <v>183</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>180</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>185</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>184</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>186</v>
       </c>
-      <c r="T31" t="b">
-        <v>0</v>
-      </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -3058,200 +3059,200 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>187</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>188</v>
       </c>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
         <v>189</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L32" t="s">
-        <v>84</v>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" t="s">
         <v>107</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>187</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>188</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>130</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>189</v>
       </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>190</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>191</v>
       </c>
-      <c r="G33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" t="s">
         <v>192</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L33" t="s">
-        <v>84</v>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" t="s">
         <v>142</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>190</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>191</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>86</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>192</v>
       </c>
-      <c r="T33" t="b">
-        <v>0</v>
-      </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>190</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>193</v>
       </c>
-      <c r="G34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
         <v>194</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L34" t="s">
-        <v>84</v>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" t="s">
         <v>142</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>190</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>193</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>86</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>194</v>
       </c>
-      <c r="T34" t="b">
-        <v>0</v>
-      </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>190</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>195</v>
       </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" t="s">
         <v>196</v>
       </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L35" t="s">
-        <v>84</v>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" t="s">
         <v>142</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>190</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>195</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>94</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>196</v>
       </c>
-      <c r="T35" t="b">
-        <v>0</v>
-      </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -3264,100 +3265,100 @@
       <c r="D36" t="s">
         <v>258</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>197</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>198</v>
       </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s">
         <v>199</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M36" t="s">
         <v>200</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>201</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>202</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>203</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>138</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>204</v>
       </c>
-      <c r="T36" t="b">
-        <v>0</v>
-      </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>205</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>206</v>
       </c>
-      <c r="G37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" t="s">
         <v>207</v>
       </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L37" t="s">
-        <v>84</v>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M37" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" t="s">
         <v>162</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>205</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>206</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>208</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>207</v>
       </c>
-      <c r="T37" t="b">
-        <v>0</v>
-      </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3370,50 +3371,50 @@
       <c r="D38" t="s">
         <v>61</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>209</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>210</v>
       </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
         <v>211</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L38" t="s">
-        <v>84</v>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N38" t="s">
         <v>212</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>209</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>210</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>213</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>211</v>
       </c>
-      <c r="T38" t="b">
-        <v>0</v>
-      </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3426,50 +3427,50 @@
       <c r="D39" t="s">
         <v>61</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>214</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>215</v>
       </c>
-      <c r="G39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" t="s">
         <v>216</v>
       </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L39" t="s">
-        <v>84</v>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" t="s">
         <v>183</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>214</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>215</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>217</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>216</v>
       </c>
-      <c r="T39" t="b">
-        <v>0</v>
-      </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3479,50 +3480,50 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>214</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>218</v>
       </c>
-      <c r="G40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" t="s">
         <v>219</v>
       </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L40" t="s">
-        <v>84</v>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" t="s">
         <v>183</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>214</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>218</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>220</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>219</v>
       </c>
-      <c r="T40" t="b">
-        <v>0</v>
-      </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -3532,100 +3533,100 @@
       <c r="C41">
         <v>5</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>214</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>221</v>
       </c>
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s">
         <v>222</v>
       </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L41" t="s">
-        <v>84</v>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" t="s">
         <v>183</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>214</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>221</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>220</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>222</v>
       </c>
-      <c r="T41" t="b">
-        <v>0</v>
-      </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>223</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>224</v>
       </c>
-      <c r="G42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" t="s">
         <v>225</v>
       </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L42" t="s">
-        <v>84</v>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M42" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" t="s">
         <v>226</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>223</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>224</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>86</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>225</v>
       </c>
-      <c r="T42" t="b">
-        <v>0</v>
-      </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -3635,50 +3636,50 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>227</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>145</v>
       </c>
-      <c r="G43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s">
         <v>228</v>
       </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L43" t="s">
-        <v>84</v>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M43" t="s">
+        <v>84</v>
+      </c>
+      <c r="N43" t="s">
         <v>107</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>227</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>145</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>91</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>228</v>
       </c>
-      <c r="T43" t="b">
-        <v>0</v>
-      </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -3691,50 +3692,50 @@
       <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>229</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>191</v>
       </c>
-      <c r="G44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s">
         <v>230</v>
       </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L44" t="s">
-        <v>84</v>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M44" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" t="s">
         <v>107</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>229</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>191</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>231</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>230</v>
       </c>
-      <c r="T44" t="b">
-        <v>0</v>
-      </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3747,150 +3748,150 @@
       <c r="D45" t="s">
         <v>64</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>229</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>232</v>
       </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s">
         <v>233</v>
       </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" t="s">
         <v>107</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>229</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>232</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>86</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>233</v>
       </c>
-      <c r="T45" t="b">
-        <v>0</v>
-      </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>234</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>145</v>
       </c>
-      <c r="G46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s">
         <v>235</v>
       </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L46" t="s">
-        <v>84</v>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" t="s">
         <v>236</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>234</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>145</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>86</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>235</v>
       </c>
-      <c r="T46" t="b">
-        <v>0</v>
-      </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>237</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>145</v>
       </c>
-      <c r="G47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s">
         <v>238</v>
       </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L47" t="s">
-        <v>84</v>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M47" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" t="s">
         <v>239</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>237</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>145</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>86</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>238</v>
       </c>
-      <c r="T47" t="b">
-        <v>0</v>
-      </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -3900,50 +3901,50 @@
       <c r="D48" t="s">
         <v>61</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>240</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>241</v>
       </c>
-      <c r="G48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s">
         <v>242</v>
       </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L48" t="s">
-        <v>84</v>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" t="s">
         <v>162</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>240</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>241</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>184</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>242</v>
       </c>
-      <c r="T48" t="b">
-        <v>0</v>
-      </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -3956,50 +3957,50 @@
       <c r="D49" t="s">
         <v>61</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>243</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>244</v>
       </c>
-      <c r="G49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s">
         <v>245</v>
       </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L49" t="s">
-        <v>84</v>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" t="s">
         <v>226</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>243</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>244</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>86</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>245</v>
       </c>
-      <c r="T49" t="b">
-        <v>0</v>
-      </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -4009,50 +4010,50 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>243</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>246</v>
       </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
         <v>247</v>
       </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L50" t="s">
-        <v>84</v>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M50" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" t="s">
         <v>226</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>243</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>246</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>184</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>247</v>
       </c>
-      <c r="T50" t="b">
-        <v>0</v>
-      </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -4065,46 +4066,46 @@
       <c r="D51" t="s">
         <v>61</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>249</v>
       </c>
-      <c r="G51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
         <v>250</v>
       </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" t="s">
         <v>200</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>251</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>248</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>252</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>86</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>253</v>
       </c>
-      <c r="T51" t="b">
-        <v>0</v>
-      </c>
       <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/analyses/input/Species Traits.xlsx
+++ b/analyses/input/Species Traits.xlsx
@@ -11,7 +11,7 @@
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1422,7 +1422,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1518,22 +1518,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1545,19 +1545,19 @@
         <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="S2" t="s">
         <v>86</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -1568,22 +1568,22 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -1595,19 +1595,19 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -1618,22 +1618,25 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
         <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -1645,19 +1648,19 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -1668,19 +1671,25 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -1692,19 +1701,19 @@
         <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -1715,22 +1724,22 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
         <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -1742,19 +1751,19 @@
         <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="Q6" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1765,25 +1774,22 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -1795,22 +1801,19 @@
         <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1821,22 +1824,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1848,19 +1851,19 @@
         <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="Q8" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1871,22 +1874,22 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1898,19 +1901,19 @@
         <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1921,22 +1924,28 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1945,22 +1954,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="S10" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="T10" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1971,22 +1980,25 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1998,19 +2010,19 @@
         <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="T11" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -2021,22 +2033,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -2048,19 +2060,19 @@
         <v>84</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -2071,22 +2083,25 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -2098,19 +2113,19 @@
         <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="Q13" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="T13" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -2121,22 +2136,28 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2148,19 +2169,19 @@
         <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="Q14" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -2171,25 +2192,28 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -2201,19 +2225,19 @@
         <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q15" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="S15" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="T15" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -2223,23 +2247,29 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
+      <c r="A16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -2248,22 +2278,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="T16" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -2274,19 +2304,28 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -2298,19 +2337,19 @@
         <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="Q17" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="S17" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="T17" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -2321,7 +2360,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2330,16 +2369,16 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -2351,19 +2390,19 @@
         <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="S18" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="T18" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -2374,13 +2413,16 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
         <v>145</v>
@@ -2389,7 +2431,7 @@
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -2401,19 +2443,19 @@
         <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="Q19" t="s">
         <v>145</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
@@ -2424,22 +2466,28 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -2451,19 +2499,19 @@
         <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="Q20" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="T20" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2474,22 +2522,28 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -2501,19 +2555,19 @@
         <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="O21" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="Q21" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="S21" t="s">
         <v>86</v>
       </c>
       <c r="T21" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
@@ -2524,22 +2578,28 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -2551,19 +2611,19 @@
         <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="Q22" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="T22" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2574,7 +2634,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2583,16 +2643,16 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -2604,19 +2664,19 @@
         <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="Q23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="S23" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="T23" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
@@ -2627,22 +2687,22 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2654,19 +2714,19 @@
         <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O24" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Q24" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s">
         <v>86</v>
       </c>
       <c r="T24" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2677,25 +2737,22 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -2707,19 +2764,19 @@
         <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="Q25" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="T25" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
@@ -2730,22 +2787,22 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -2757,19 +2814,19 @@
         <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Q26" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="S26" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="T26" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="U26" t="b">
         <v>0</v>
@@ -2780,25 +2837,22 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -2810,19 +2864,19 @@
         <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="O27" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="Q27" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="T27" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
@@ -2833,25 +2887,25 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -2863,19 +2917,22 @@
         <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="O28" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="Q28" t="s">
-        <v>175</v>
+        <v>96</v>
+      </c>
+      <c r="R28" t="s">
+        <v>101</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="U28" t="b">
         <v>0</v>
@@ -2886,22 +2943,22 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -2913,19 +2970,19 @@
         <v>84</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O29" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="Q29" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="S29" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="T29" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="U29" t="b">
         <v>0</v>
@@ -2936,28 +2993,22 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="H30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -2969,19 +3020,19 @@
         <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="Q30" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="S30" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="T30" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="U30" t="b">
         <v>0</v>
@@ -2992,28 +3043,22 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -3025,19 +3070,19 @@
         <v>84</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O31" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="Q31" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="S31" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="T31" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="U31" t="b">
         <v>0</v>
@@ -3048,28 +3093,22 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -3081,19 +3120,19 @@
         <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O32" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="Q32" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="S32" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="T32" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -3104,22 +3143,22 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3131,19 +3170,19 @@
         <v>84</v>
       </c>
       <c r="N33" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O33" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="Q33" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="S33" t="s">
         <v>86</v>
       </c>
       <c r="T33" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="U33" t="b">
         <v>0</v>
@@ -3154,22 +3193,22 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
         <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -3181,19 +3220,19 @@
         <v>84</v>
       </c>
       <c r="N34" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O34" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="Q34" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="S34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T34" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="U34" t="b">
         <v>0</v>
@@ -3204,22 +3243,22 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
         <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -3231,19 +3270,19 @@
         <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O35" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="S35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T35" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="U35" t="b">
         <v>0</v>
@@ -3253,29 +3292,26 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="2" t="s">
-        <v>22</v>
+      <c r="A36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
         <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3284,22 +3320,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M36" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="Q36" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="S36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="T36" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="U36" t="b">
         <v>0</v>
@@ -3310,22 +3346,22 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -3337,19 +3373,19 @@
         <v>84</v>
       </c>
       <c r="N37" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="O37" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="Q37" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="S37" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="T37" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="U37" t="b">
         <v>0</v>
@@ -3360,28 +3396,22 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>61</v>
-      </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -3393,19 +3423,19 @@
         <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="O38" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="Q38" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="S38" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="T38" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="U38" t="b">
         <v>0</v>
@@ -3416,28 +3446,22 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
       <c r="F39" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
         <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3449,19 +3473,19 @@
         <v>84</v>
       </c>
       <c r="N39" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="O39" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="Q39" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="S39" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="T39" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="U39" t="b">
         <v>0</v>
@@ -3472,25 +3496,25 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>4</v>
+      <c r="D40" t="s">
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -3502,19 +3526,19 @@
         <v>84</v>
       </c>
       <c r="N40" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="O40" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="Q40" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="S40" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="T40" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="U40" t="b">
         <v>0</v>
@@ -3525,25 +3549,22 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="G41" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="H41" t="s">
         <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -3555,19 +3576,19 @@
         <v>84</v>
       </c>
       <c r="N41" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="O41" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="Q41" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="S41" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="T41" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="U41" t="b">
         <v>0</v>
@@ -3578,22 +3599,28 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="H42" t="s">
         <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -3605,19 +3632,19 @@
         <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="O42" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="Q42" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="S42" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="T42" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="U42" t="b">
         <v>0</v>
@@ -3628,25 +3655,28 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>5</v>
+      <c r="D43" t="s">
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
         <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -3658,19 +3688,19 @@
         <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O43" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Q43" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="S43" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="T43" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="U43" t="b">
         <v>0</v>
@@ -3681,28 +3711,25 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="H44" t="s">
         <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -3714,19 +3741,19 @@
         <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O44" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q44" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="S44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T44" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="U44" t="b">
         <v>0</v>
@@ -3737,28 +3764,22 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H45" t="s">
         <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -3770,19 +3791,19 @@
         <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="O45" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q45" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S45" t="s">
         <v>86</v>
       </c>
       <c r="T45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="U45" t="b">
         <v>0</v>
@@ -3842,23 +3863,26 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
+      <c r="A47" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
         <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3870,19 +3894,19 @@
         <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="O47" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q47" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="S47" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="T47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U47" t="b">
         <v>0</v>
@@ -3892,26 +3916,20 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
+      <c r="A48" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
         <v>82</v>
       </c>
       <c r="J48" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -3923,19 +3941,19 @@
         <v>84</v>
       </c>
       <c r="N48" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O48" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Q48" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="S48" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="T48" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
@@ -3946,28 +3964,19 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="H49" t="s">
         <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -3979,19 +3988,19 @@
         <v>84</v>
       </c>
       <c r="N49" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="Q49" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="S49" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="T49" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="U49" t="b">
         <v>0</v>
@@ -4002,25 +4011,22 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
         <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -4032,19 +4038,19 @@
         <v>84</v>
       </c>
       <c r="N50" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="O50" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="Q50" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="S50" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T50" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="U50" t="b">
         <v>0</v>
@@ -4055,28 +4061,22 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
         <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -4085,22 +4085,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="N51" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="Q51" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="S51" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="T51" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="U51" t="b">
         <v>0</v>
@@ -4110,9 +4110,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:B52">
-      <sortCondition ref="A1:A52"/>
+  <autoFilter ref="A1:V1">
+    <sortState ref="A2:V51">
+      <sortCondition ref="B1:B51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4130,7 +4130,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D62" sqref="D62:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/analyses/input/Species Traits.xlsx
+++ b/analyses/input/Species Traits.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="32780" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="23280" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1419,10 +1419,10 @@
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B10"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1518,22 +1518,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1545,19 +1545,19 @@
         <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
         <v>86</v>
       </c>
       <c r="T2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -1568,22 +1568,22 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -1595,19 +1595,19 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -1618,25 +1618,22 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -1648,19 +1645,19 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -1671,25 +1668,19 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -1701,19 +1692,19 @@
         <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -1724,22 +1715,22 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -1751,19 +1742,19 @@
         <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="T6" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1774,22 +1765,25 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -1801,19 +1795,22 @@
         <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="Q7" t="s">
-        <v>193</v>
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1824,22 +1821,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1851,19 +1848,19 @@
         <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1874,22 +1871,22 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1901,19 +1898,19 @@
         <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="T9" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1924,28 +1921,22 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1954,22 +1945,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="Q10" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="T10" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1980,25 +1971,22 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -2010,19 +1998,19 @@
         <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="S11" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="T11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -2033,22 +2021,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -2060,19 +2048,19 @@
         <v>84</v>
       </c>
       <c r="N12" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="Q12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="S12" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="T12" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -2083,25 +2071,22 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>254</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -2113,19 +2098,19 @@
         <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="Q13" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -2136,28 +2121,22 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2169,19 +2148,19 @@
         <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="Q14" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -2192,28 +2171,25 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -2225,19 +2201,19 @@
         <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -2247,29 +2223,23 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>258</v>
-      </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -2278,22 +2248,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="Q16" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="S16" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -2304,28 +2274,19 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -2337,19 +2298,19 @@
         <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="Q17" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="T17" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -2360,7 +2321,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2369,16 +2330,16 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -2390,19 +2351,19 @@
         <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q18" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="T18" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -2413,16 +2374,13 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>145</v>
@@ -2431,7 +2389,7 @@
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -2443,19 +2401,19 @@
         <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="Q19" t="s">
         <v>145</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
@@ -2466,28 +2424,22 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -2499,19 +2451,19 @@
         <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="O20" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="Q20" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="S20" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2522,28 +2474,22 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -2555,19 +2501,19 @@
         <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="O21" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="Q21" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s">
         <v>86</v>
       </c>
       <c r="T21" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
@@ -2578,7 +2524,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2586,20 +2532,17 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -2611,19 +2554,19 @@
         <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="O22" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="Q22" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="S22" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="T22" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2634,25 +2577,22 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -2664,19 +2604,19 @@
         <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="O23" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="Q23" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="T23" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
@@ -2687,22 +2627,22 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2714,19 +2654,19 @@
         <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="S24" t="s">
         <v>86</v>
       </c>
       <c r="T24" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2737,22 +2677,25 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -2764,19 +2707,19 @@
         <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Q25" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="S25" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="T25" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
@@ -2787,22 +2730,22 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -2814,19 +2757,19 @@
         <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Q26" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="S26" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="T26" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="U26" t="b">
         <v>0</v>
@@ -2837,22 +2780,25 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>5</v>
+      <c r="C27">
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="H27" t="s">
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -2864,19 +2810,19 @@
         <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="Q27" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="S27" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="T27" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
@@ -2887,25 +2833,25 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -2917,22 +2863,19 @@
         <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="Q28" t="s">
-        <v>96</v>
-      </c>
-      <c r="R28" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T28" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="U28" t="b">
         <v>0</v>
@@ -2943,22 +2886,22 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -2970,19 +2913,19 @@
         <v>84</v>
       </c>
       <c r="N29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Q29" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="S29" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="T29" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="U29" t="b">
         <v>0</v>
@@ -2993,22 +2936,28 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -3020,19 +2969,19 @@
         <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="T30" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="U30" t="b">
         <v>0</v>
@@ -3043,22 +2992,28 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="B31">
-        <v>5</v>
+      <c r="D31" t="s">
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -3070,19 +3025,19 @@
         <v>84</v>
       </c>
       <c r="N31" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="T31" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="U31" t="b">
         <v>0</v>
@@ -3093,22 +3048,28 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -3120,19 +3081,19 @@
         <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="S32" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="T32" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -3143,22 +3104,22 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3170,19 +3131,19 @@
         <v>84</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="Q33" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="S33" t="s">
         <v>86</v>
       </c>
       <c r="T33" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="U33" t="b">
         <v>0</v>
@@ -3193,22 +3154,22 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="H34" t="s">
         <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -3220,19 +3181,19 @@
         <v>84</v>
       </c>
       <c r="N34" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O34" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="Q34" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="S34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T34" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="U34" t="b">
         <v>0</v>
@@ -3243,75 +3204,78 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" t="s">
+        <v>142</v>
+      </c>
+      <c r="O35" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>195</v>
+      </c>
+      <c r="S35" t="s">
+        <v>94</v>
+      </c>
+      <c r="T35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M35" t="s">
-        <v>84</v>
-      </c>
-      <c r="N35" t="s">
-        <v>98</v>
-      </c>
-      <c r="O35" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>124</v>
-      </c>
-      <c r="S35" t="s">
-        <v>91</v>
-      </c>
-      <c r="T35" t="s">
-        <v>125</v>
-      </c>
-      <c r="U35" t="b">
-        <v>0</v>
-      </c>
-      <c r="V35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="H36" t="s">
         <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3320,22 +3284,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="S36" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="T36" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="U36" t="b">
         <v>0</v>
@@ -3346,22 +3310,22 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -3373,19 +3337,19 @@
         <v>84</v>
       </c>
       <c r="N37" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="O37" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="Q37" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="S37" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="U37" t="b">
         <v>0</v>
@@ -3396,22 +3360,28 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>5</v>
       </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -3423,19 +3393,19 @@
         <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="O38" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="Q38" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="S38" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="T38" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="U38" t="b">
         <v>0</v>
@@ -3446,22 +3416,28 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
         <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -3473,19 +3449,19 @@
         <v>84</v>
       </c>
       <c r="N39" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="O39" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="Q39" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="S39" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="T39" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="U39" t="b">
         <v>0</v>
@@ -3496,25 +3472,25 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
-        <v>61</v>
+      <c r="C40">
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -3526,19 +3502,19 @@
         <v>84</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="O40" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="Q40" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="S40" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="T40" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="U40" t="b">
         <v>0</v>
@@ -3549,22 +3525,25 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
         <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -3576,19 +3555,19 @@
         <v>84</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="O41" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="Q41" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="S41" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="T41" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="U41" t="b">
         <v>0</v>
@@ -3599,28 +3578,22 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s">
         <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -3632,19 +3605,19 @@
         <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="O42" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Q42" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="S42" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="T42" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="U42" t="b">
         <v>0</v>
@@ -3655,28 +3628,25 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
         <v>5</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="H43" t="s">
         <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -3688,19 +3658,19 @@
         <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="Q43" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="S43" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="T43" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="U43" t="b">
         <v>0</v>
@@ -3711,25 +3681,28 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>5</v>
       </c>
-      <c r="C44">
-        <v>4</v>
+      <c r="D44" t="s">
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
         <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -3741,19 +3714,19 @@
         <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O44" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="Q44" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="S44" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="T44" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="U44" t="b">
         <v>0</v>
@@ -3764,22 +3737,28 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
         <v>5</v>
       </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
         <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -3791,19 +3770,19 @@
         <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="O45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q45" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="S45" t="s">
         <v>86</v>
       </c>
       <c r="T45" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="U45" t="b">
         <v>0</v>
@@ -3863,97 +3842,100 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s">
+        <v>238</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M47" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" t="s">
+        <v>239</v>
+      </c>
+      <c r="O47" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" t="s">
+        <v>86</v>
+      </c>
+      <c r="T47" t="s">
+        <v>238</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>61</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>240</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>241</v>
       </c>
-      <c r="H47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s">
         <v>242</v>
       </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M47" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" t="s">
         <v>162</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O48" t="s">
         <v>240</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q48" t="s">
         <v>241</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S48" t="s">
         <v>184</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T48" t="s">
         <v>242</v>
-      </c>
-      <c r="U47" t="b">
-        <v>0</v>
-      </c>
-      <c r="V47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M48" t="s">
-        <v>84</v>
-      </c>
-      <c r="N48" t="s">
-        <v>85</v>
-      </c>
-      <c r="O48" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>92</v>
-      </c>
-      <c r="S48" t="s">
-        <v>94</v>
-      </c>
-      <c r="T48" t="s">
-        <v>93</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
@@ -3964,19 +3946,28 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
         <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -3988,19 +3979,19 @@
         <v>84</v>
       </c>
       <c r="N49" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="O49" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="Q49" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="S49" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="T49" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="U49" t="b">
         <v>0</v>
@@ -4011,22 +4002,25 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
         <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -4038,19 +4032,19 @@
         <v>84</v>
       </c>
       <c r="N50" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="O50" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="Q50" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="S50" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="T50" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="U50" t="b">
         <v>0</v>
@@ -4061,22 +4055,28 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="H51" t="s">
         <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -4085,22 +4085,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="N51" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="Q51" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="S51" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="T51" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="U51" t="b">
         <v>0</v>
@@ -4112,7 +4112,7 @@
   </sheetData>
   <autoFilter ref="A1:V1">
     <sortState ref="A2:V51">
-      <sortCondition ref="B1:B51"/>
+      <sortCondition ref="A1:A51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
